--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463200.6882626325</v>
+        <v>436766.7390029134</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1207873.763444805</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18603869.05421055</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5525247.203600086</v>
+        <v>5528530.021682206</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>32.98509320445461</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>181.0201173812374</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +741,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>137.0847236293961</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.2418220378557</v>
+        <v>61.16499501595207</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>148.9496720772062</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>17.44000625025348</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>19.68703260468534</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>172.8635119310596</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>128.0085580725108</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>86.21539897205307</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>15.77311383601439</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>137.610688794897</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1944,7 +1944,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2084,11 +2084,11 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3.265316057196634</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>69.30259333436571</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,61 +2330,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>8.983945222429185</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>1.197928092376042</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>68.43462942837229</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>30.86155971440648</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,58 +2953,58 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3083,10 +3083,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>84.47305450481102</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>42.22730542821517</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3275,61 +3275,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>222.3396163656985</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="S36" t="n">
-        <v>74.95904355882617</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>25.67654072268765</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>161.4062980766222</v>
       </c>
     </row>
     <row r="40">
@@ -3667,49 +3667,49 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>7.128048667710792</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>180.2735260549796</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>172.8635119310595</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.97164022445772</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>49.9262878755946</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>90.08149903804397</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>270.1573506227026</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>475.681498027503</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>679.0176481596488</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>679.0176481596488</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>679.0176481596488</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>679.0176481596488</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>679.0176481596488</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>469.3205280649641</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>259.6234079702793</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>49.9262878755946</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>488.7679140055524</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>314.3148847244254</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>314.3148847244254</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.0774297189699</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>167.3142646386704</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>372.838412043471</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>578.3625594482714</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.0442035175087</v>
+        <v>656.9832510256205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>505.2230168118805</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>740.7405402829006</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>436.0022521008685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.0663215028962</v>
+        <v>499.2329058593328</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>324.7798765782058</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>175.8454669169545</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>555.4818896568217</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.2816585229643</v>
+        <v>667.4482428794008</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>505.2230168118805</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>226.3051320061838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.8838132313431</v>
+        <v>412.943176715313</v>
       </c>
       <c r="C9" t="n">
-        <v>256.4295990119429</v>
+        <v>412.943176715313</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>264.0087670540617</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>264.0087670540617</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>246.3925991245127</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>222.1321593162995</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>427.6563067211001</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>633.1804541259006</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>647.7571179616007</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>412.943176715313</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>201.3092352908974</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>201.3092352908974</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>505.2230168118805</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>411.0063553855821</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>201.3092352908974</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>201.3092352908974</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K12" t="n">
-        <v>29.03990215807806</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>236.7088231519997</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>236.7088231519997</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>442.2329705568002</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>647.7571179616007</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>454.7966563843865</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>245.0995362897017</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>225.2136447698176</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>225.2136447698176</v>
       </c>
       <c r="X12" t="n">
-        <v>199.2900309704538</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4046502373128</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>189.1984156022267</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="C14" t="n">
-        <v>189.1984156022267</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="D14" t="n">
-        <v>189.1984156022267</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>180.4972953306516</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>386.0214427354521</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>740.7405402829006</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="W14" t="n">
-        <v>604.3859801240053</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="X14" t="n">
-        <v>604.3859801240053</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.792197863116</v>
+        <v>645.6993721955532</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.5276891429948</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="C15" t="n">
-        <v>103.5276891429948</v>
+        <v>701.0990217643346</v>
       </c>
       <c r="D15" t="n">
-        <v>103.5276891429948</v>
+        <v>552.1646121030833</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>392.9271570976277</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>246.3925991245127</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="N15" t="n">
-        <v>626.8294255367553</v>
+        <v>758.5380141837379</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T15" t="n">
-        <v>518.7152536647734</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U15" t="n">
-        <v>311.1214714038841</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V15" t="n">
-        <v>311.1214714038841</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W15" t="n">
-        <v>311.1214714038841</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X15" t="n">
-        <v>311.1214714038841</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Y15" t="n">
-        <v>103.5276891429948</v>
+        <v>830.4005955749516</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>39.10244809925949</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>411.0063553855821</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>201.3092352908974</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>196.6838634961576</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>402.2080109009581</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>607.7321583057586</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>756.9271084484067</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>500.6814290152826</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="C18" t="n">
-        <v>500.6814290152826</v>
+        <v>814.4681573567552</v>
       </c>
       <c r="D18" t="n">
-        <v>500.6814290152826</v>
+        <v>665.533747695504</v>
       </c>
       <c r="E18" t="n">
-        <v>500.6814290152826</v>
+        <v>506.2962926900485</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>359.7617347169335</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>221.0309092995489</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>442.2329705568002</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>647.7571179616007</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W18" t="n">
-        <v>500.6814290152826</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X18" t="n">
-        <v>500.6814290152826</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Y18" t="n">
-        <v>500.6814290152826</v>
+        <v>830.4005955749516</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>319.0683498528888</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C21" t="n">
-        <v>319.0683498528888</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D21" t="n">
-        <v>319.0683498528888</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E21" t="n">
-        <v>319.0683498528888</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>319.0683498528888</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>180.3375244355043</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5935,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>343.4227147053767</v>
+        <v>29.1099679068663</v>
       </c>
       <c r="C24" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
         <v>20.03527576299844</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>962.8471271344988</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W24" t="n">
-        <v>719.3983504903987</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X24" t="n">
-        <v>719.3983504903987</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y24" t="n">
-        <v>511.6380517254448</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6172,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="G26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="H26" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="C26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="D26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="E26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="F26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6263,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C27" t="n">
-        <v>205.7769902389545</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="D27" t="n">
-        <v>56.84258057770322</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="E27" t="n">
-        <v>56.84258057770322</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6312,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6418,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>777.5613083818946</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>777.5613083818946</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="U33" t="n">
-        <v>777.5613083818946</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="V33" t="n">
-        <v>777.5613083818946</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W33" t="n">
-        <v>777.5613083818946</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C36" t="n">
-        <v>612.718391167419</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7017,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="S36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="T36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="U36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="V36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="W36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="X36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="Y36" t="n">
-        <v>787.171420448546</v>
+        <v>900.5405560409666</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
         <v>829.5248650203655</v>
@@ -7129,16 +7129,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>191.7516008032143</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="C39" t="n">
-        <v>191.7516008032143</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D39" t="n">
-        <v>191.7516008032143</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7260,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y39" t="n">
-        <v>191.7516008032143</v>
+        <v>598.8338961455414</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>639.976906990516</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>432.3831247296267</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>224.7893424687375</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W42" t="n">
-        <v>17.19556020784815</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X42" t="n">
-        <v>17.19556020784815</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.19556020784815</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>90.08149903804397</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>270.1573506227026</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>475.681498027503</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="W44" t="n">
-        <v>224.0352098159517</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.44142755506243</v>
+        <v>226.3051320061838</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>210.756582074079</v>
       </c>
       <c r="C45" t="n">
-        <v>64.21544693014803</v>
+        <v>210.756582074079</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>210.756582074079</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>210.756582074079</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>210.756582074079</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.9771475039197</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>222.1321593162995</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>427.6563067211001</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>624.8764481701511</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>628.2140009337177</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>418.5168808390329</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>418.5168808390329</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>418.5168808390329</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>418.5168808390329</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>210.756582074079</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>294.3054946071471</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,13 +8064,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>294.3625720302723</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>316.6075821100981</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>133.8346644852367</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8459,13 +8459,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>407.1732945263112</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,16 +8535,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N9" t="n">
-        <v>144.0674440055713</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>157.3201473087879</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>407.1732945263112</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>234.254633499736</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>297.2555841702197</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O15" t="n">
-        <v>339.8103375922893</v>
+        <v>145.0891968463478</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>305.4486393174361</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>227.0419658031952</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,10 +10674,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>294.3054946071471</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>330.5539761732838</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>332.287798566553</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361756</v>
+        <v>141.6408198236751</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>162.1309517847311</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>178.6377897623157</v>
       </c>
     </row>
     <row r="3">
@@ -22629,13 +22629,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>7.984488763987741</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.47896438788541</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>175.1336927697427</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>157.6727428772697</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>186.8768895328647</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>178.6377897623157</v>
       </c>
     </row>
     <row r="6">
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.44087373944865</v>
+        <v>144.5177007613523</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>157.6727428772697</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23078,16 +23078,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>144.8980473245306</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>141.6408198236751</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>162.1309517847311</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>23.75882691110957</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,10 +23109,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>127.6292061431304</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>25.20043825568737</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>171.8288304750786</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23309,22 +23309,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>15.49570067039346</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>141.6408198236751</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>162.1309517847311</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23385,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>213.1135545447399</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>175.1336927697427</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>157.6727428772697</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>210.9009519055691</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>131.8746532220293</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>176.3774567863534</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>44.69994091580492</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>71.42968148334788</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>199.2758968479735</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>207.7025886213972</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>131.8746532220293</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.62167842480156</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23811,16 +23811,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>156.9353851523014</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.458523598486863</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,10 +23865,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23972,10 +23972,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,22 +24011,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,25 +24048,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>42.93285090213075</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24285,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>163.7245537658866</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.6026590570492</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24519,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8833893005683</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>68.90888773483834</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,10 +24576,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24658,10 +24658,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,19 +24731,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24935,10 +24935,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,10 +24971,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.2101165990268</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>157.9374232666064</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.27640067767025</v>
       </c>
       <c r="S36" t="n">
-        <v>96.72412754501165</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25330,10 +25330,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,16 +25476,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>131.9685397327133</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>44.2763977006822</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>159.4051349821565</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,19 +25755,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>19.89120263984205</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>131.8746532220293</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,22 +25916,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>43.7455040140986</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>154.8887465390754</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>141.6408198236751</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>57.37187693875292</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25995,10 +25995,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465487.071747141</v>
+        <v>466942.2498511018</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465487.0717471409</v>
+        <v>466942.2498511018</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465487.0717471412</v>
+        <v>466942.249851102</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465487.0717471411</v>
+        <v>466942.2498511018</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465487.071747141</v>
+        <v>466942.249851102</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575746</v>
+        <v>466942.2498511018</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575747</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465487.0717471409</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465487.0717471409</v>
+        <v>466942.2498511018</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102542.4671927055</v>
+        <v>102862.8791254394</v>
       </c>
       <c r="C2" t="n">
-        <v>102542.4671927055</v>
+        <v>102862.8791254394</v>
       </c>
       <c r="D2" t="n">
-        <v>102542.4671927055</v>
+        <v>102862.8791254394</v>
       </c>
       <c r="E2" t="n">
-        <v>102542.4671927055</v>
+        <v>102862.8791254394</v>
       </c>
       <c r="F2" t="n">
-        <v>102542.4671927055</v>
+        <v>102862.8791254394</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>102862.8791254394</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26350,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>102542.4671927055</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>102542.4671927055</v>
+        <v>102862.8791254394</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>69571.58469771611</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9015.435694921785</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>54317.33335715316</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789077</v>
+        <v>16083.40794122893</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789077</v>
+        <v>16083.40794122893</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16083.40794122893</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16083.40794122893</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16083.40794122893</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16083.40794122893</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16083.40794122893</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>46249.68905273926</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>46249.68905273926</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>46249.68905273926</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>12622.08905273926</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>12622.08905273926</v>
       </c>
       <c r="G5" t="n">
-        <v>14653.66876376167</v>
+        <v>12622.08905273926</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>12622.08905273926</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25398.83848872251</v>
+        <v>-29041.80256624494</v>
       </c>
       <c r="C6" t="n">
-        <v>43474.91809296734</v>
+        <v>40529.78213147118</v>
       </c>
       <c r="D6" t="n">
-        <v>43474.91809296734</v>
+        <v>40529.78213147117</v>
       </c>
       <c r="E6" t="n">
-        <v>77102.51809296732</v>
+        <v>74157.38213147118</v>
       </c>
       <c r="F6" t="n">
-        <v>77102.51809296734</v>
+        <v>74157.38213147118</v>
       </c>
       <c r="G6" t="n">
-        <v>69960.87420805986</v>
+        <v>74157.38213147117</v>
       </c>
       <c r="H6" t="n">
-        <v>79689.91718222691</v>
+        <v>67420.64304570173</v>
       </c>
       <c r="I6" t="n">
-        <v>79689.91718222691</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
-        <v>25917.40629201749</v>
+        <v>22118.74538347038</v>
       </c>
       <c r="K6" t="n">
-        <v>79689.91718222693</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="L6" t="n">
-        <v>79689.9171822269</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="M6" t="n">
-        <v>79689.91718222693</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="N6" t="n">
-        <v>79689.9171822269</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="O6" t="n">
-        <v>77102.51809296734</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>77102.51809296734</v>
+        <v>74157.3821314712</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="G4" t="n">
-        <v>241.0142888776591</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.41413998392116</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>33.41413998392116</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>74.2156435621666</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>152.228538108254</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>87.19451851350715</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>2.492952401903357</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>177.7602309297203</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N9" t="n">
-        <v>12.72573192223801</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>14.7239028643435</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>177.7602309297203</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>95.70025371986186</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>61.48916920023249</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O15" t="n">
-        <v>197.2140931478448</v>
+        <v>2.492952401903357</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>74.21564356216658</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>95.70025371986186</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,10 +37394,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>74.2156435621666</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>199.2122640899505</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436766.7390029134</v>
+        <v>437771.4439997926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1207873.763444805</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18603869.05421055</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5528530.021682206</v>
+        <v>5538287.114247196</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>32.98509320445461</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>137.0847236293961</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>207.6001488937379</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>182.8542111456044</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.16499501595207</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>182.8542111456044</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>46.68561093626616</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>17.44000625025348</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>207.6001488937379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>19.68703260468534</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>172.8635119310596</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>128.0085580725108</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,7 +1703,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>15.77311383601439</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>45.73653111527436</v>
       </c>
       <c r="E21" t="n">
-        <v>36.43923176655773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>8.983945222429185</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.37559015745697</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>24.75543250779076</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,11 +2554,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2567,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>9.991949277019346</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>68.43462942837229</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>32.87280126892925</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2925,19 +2927,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>30.86155971440648</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>42.22730542821517</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.3396163656985</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>161.4062980766222</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>241.0142888776591</v>
@@ -3752,61 +3754,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.128048667710792</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>172.8635119310595</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>79.97164022445772</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.6001488937379</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.9262878755946</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>90.08149903804397</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>270.1573506227026</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>475.681498027503</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
-        <v>681.2056454323035</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>830.4005955749516</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>830.4005955749516</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>679.0176481596488</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S2" t="n">
-        <v>679.0176481596488</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T2" t="n">
-        <v>679.0176481596488</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U2" t="n">
-        <v>679.0176481596488</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V2" t="n">
-        <v>679.0176481596488</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W2" t="n">
-        <v>469.3205280649641</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X2" t="n">
-        <v>259.6234079702793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.9262878755946</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488.7679140055524</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>314.3148847244254</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>314.3148847244254</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>155.0774297189699</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>16.60801191149903</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>167.3142646386704</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>372.838412043471</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="O3" t="n">
-        <v>578.3625594482714</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
-        <v>761.0060370616222</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.92213691921201</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11017511143419</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.8010257668705</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.3913723663086</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35900544540522</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>39.10244809925949</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="S4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="T4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="U4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.10244809925949</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.3051320061838</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>830.4005955749516</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>645.6993721955532</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>436.0022521008685</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.2329058593328</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C6" t="n">
-        <v>324.7798765782058</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>175.8454669169545</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>16.60801191149903</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>347.4897193741369</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>553.0138667789374</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>555.4818896568217</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>761.0060370616222</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.4482428794008</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.3051320061838</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>681.2056454323035</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>645.6993721955532</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>436.0022521008685</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>226.3051320061838</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.3051320061838</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>412.943176715313</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C9" t="n">
-        <v>412.943176715313</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>264.0087670540617</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>264.0087670540617</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>246.3925991245127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>107.6617737071283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>107.6617737071283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.60801191149903</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>222.1321593162995</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>427.6563067211001</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>633.1804541259006</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>647.7571179616007</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>620.7034754802669</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>620.7034754802669</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>620.7034754802669</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>412.943176715313</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.3092352908974</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C11" t="n">
-        <v>201.3092352908974</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D11" t="n">
-        <v>16.60801191149903</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E11" t="n">
-        <v>16.60801191149903</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F11" t="n">
-        <v>16.60801191149903</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G11" t="n">
-        <v>16.60801191149903</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H11" t="n">
-        <v>16.60801191149903</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I11" t="n">
-        <v>16.60801191149903</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>681.2056454323035</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>830.4005955749516</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>620.7034754802669</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U11" t="n">
-        <v>620.7034754802669</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V11" t="n">
-        <v>620.7034754802669</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W11" t="n">
-        <v>411.0063553855821</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X11" t="n">
-        <v>201.3092352908974</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y11" t="n">
-        <v>201.3092352908974</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.36214456428474</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C12" t="n">
-        <v>17.36214456428474</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D12" t="n">
-        <v>17.36214456428474</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E12" t="n">
-        <v>17.36214456428474</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>236.7088231519997</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>236.7088231519997</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>442.2329705568002</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>647.7571179616007</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>454.7966563843865</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>245.0995362897017</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>225.2136447698176</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>225.2136447698176</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>17.36214456428474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.36214456428474</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.4046502373128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>226.3051320061838</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>226.3051320061838</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>226.3051320061838</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F14" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>180.4972953306516</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>645.6993721955532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>645.6993721955532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>645.6993721955532</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>701.0990217643346</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>552.1646121030833</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>392.9271570976277</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>246.3925991245127</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>107.6617737071283</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>107.6617737071283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>347.4897193741369</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>553.0138667789374</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>758.5380141837379</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>39.10244809925949</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>39.10244809925949</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>830.4005955749516</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>830.4005955749516</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>830.4005955749516</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>830.4005955749516</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>620.7034754802669</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>402.2080109009581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>607.7321583057586</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>756.9271084484067</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>830.4005955749516</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>830.4005955749516</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>830.4005955749516</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4681573567552</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>665.533747695504</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2962926900485</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7617347169335</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>221.0309092995489</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>107.6617737071283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>347.4897193741369</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>347.4897193741369</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>442.2329705568002</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>647.7571179616007</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>380.2300195200815</v>
+        <v>224.7171143937231</v>
       </c>
       <c r="C21" t="n">
-        <v>205.7769902389545</v>
+        <v>224.7171143937231</v>
       </c>
       <c r="D21" t="n">
-        <v>56.84258057770322</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y21" t="n">
-        <v>548.4453565401495</v>
+        <v>224.7171143937231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>72.23626279480629</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.1099679068663</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
         <v>20.03527576299844</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>880.8494886849221</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>880.8494886849221</v>
       </c>
       <c r="U24" t="n">
-        <v>432.4774131586771</v>
+        <v>880.8494886849221</v>
       </c>
       <c r="V24" t="n">
-        <v>197.3253049269343</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W24" t="n">
-        <v>197.3253049269343</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X24" t="n">
-        <v>197.3253049269343</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>197.3253049269343</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.8299288097498</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C27" t="n">
-        <v>292.8299288097498</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="D27" t="n">
-        <v>292.8299288097498</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="E27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6318,7 +6320,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="28">
@@ -6418,13 +6420,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6440,10 +6442,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6482,28 +6484,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="T29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="U29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="X29" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>227.8867759685313</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>227.8867759685313</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="31">
@@ -6652,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>646.8164376473068</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>646.8164376473068</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>411.6643294155641</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>168.215552771464</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>168.215552771464</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>518.2486856454962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>274.7999090013961</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>274.7999090013961</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>274.7999090013961</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>900.5405560409666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>726.0875267598396</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>900.5405560409666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>900.5405560409666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>900.5405560409666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>900.5405560409666</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>900.5405560409666</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>900.5405560409666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>900.5405560409666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>900.5405560409666</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>598.8338961455414</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7357,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>360.2295980564601</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>360.2295980564601</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>116.7808214123601</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>116.7808214123601</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.7808214123601</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.3051320061838</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>226.3051320061838</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>226.3051320061838</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>226.3051320061838</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>226.3051320061838</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>90.08149903804397</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>270.1573506227026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>475.681498027503</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>681.2056454323035</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>610.6118601120397</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>436.0022521008685</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>226.3051320061838</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>226.3051320061838</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>226.3051320061838</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>210.756582074079</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>210.756582074079</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>210.756582074079</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>210.756582074079</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>210.756582074079</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>129.9771475039197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.60801191149903</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>222.1321593162995</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>427.6563067211001</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>624.8764481701511</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>830.4005955749516</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>628.2140009337177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>418.5168808390329</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>418.5168808390329</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>418.5168808390329</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>418.5168808390329</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>210.756582074079</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>294.3054946071471</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>437.9463821210106</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0132124903288</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>294.3625720302723</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>338.9418609770712</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>350.1963933381824</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>316.6075821100981</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>349.7341828157562</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>133.8346644852367</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>407.1732945263112</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>157.3201473087879</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>407.1732945263112</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>234.254633499736</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.9418609770712</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>350.1963933381824</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>297.2555841702197</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>145.0891968463478</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>305.4486393174361</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>227.0419658031952</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9966,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,13 +10205,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>294.3054946071471</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>349.7341828157562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>330.5539761732838</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>332.287798566553</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>112.7259816037308</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>141.6408198236751</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>162.1309517847311</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.6377897623157</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>100.311230012675</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>7.984488763987741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60.00013368622585</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>157.6727428772697</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>186.8768895328647</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.6377897623157</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22872,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>144.5177007613523</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="7">
@@ -22957,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6727428772697</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>144.8980473245306</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>141.6408198236751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>162.1309517847311</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>126.0228880520496</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>127.6292061431304</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>25.20043825568737</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23194,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>171.8288304750786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.49570067039346</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>141.6408198236751</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>162.1309517847311</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>18.34123318723692</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>213.1135545447399</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>157.6727428772697</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>176.3774567863534</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>44.69994091580492</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>27.62167842480156</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>156.9353851523014</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23935,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23975,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>101.7085344493644</v>
       </c>
       <c r="E21" t="n">
-        <v>121.2058486888432</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>163.7245537658866</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>89.30758094638085</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>147.6531311783816</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>68.90888773483834</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24680,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>139.8356977193865</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>201.9390274350188</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>157.9374232666064</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7562331984328523</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.27640067767025</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25369,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,10 +25393,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.9490329357426</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,16 +25478,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>44.2763977006822</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>140.9160811946027</v>
@@ -25640,7 +25642,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159.4051349821565</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25725,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,13 +25921,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>43.7455040140986</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>154.8887465390754</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>141.6408198236751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>57.37187693875292</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25995,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>18.34123318723692</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466942.2498511018</v>
+        <v>359261.1036293524</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466942.2498511018</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466942.249851102</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466942.2498511018</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466942.249851102</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466942.2498511018</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466942.2498511018</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102862.8791254394</v>
+        <v>79152.84384797489</v>
       </c>
       <c r="C2" t="n">
-        <v>102862.8791254394</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>102862.8791254394</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>102862.8791254394</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
-        <v>102862.8791254394</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
-        <v>102862.8791254394</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26341,19 +26343,19 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>102862.8791254394</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69571.58469771611</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9015.435694921785</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54317.33335715316</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16083.40794122893</v>
+        <v>12249.99434359158</v>
       </c>
       <c r="C4" t="n">
-        <v>16083.40794122893</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16083.40794122893</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16083.40794122893</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16083.40794122893</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16083.40794122893</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26457,7 +26459,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16083.40794122893</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46249.68905273926</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26511,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29041.80256624494</v>
+        <v>12088.40848117698</v>
       </c>
       <c r="C6" t="n">
-        <v>40529.78213147118</v>
+        <v>-17767.84344604459</v>
       </c>
       <c r="D6" t="n">
-        <v>40529.78213147117</v>
+        <v>42808.47874062352</v>
       </c>
       <c r="E6" t="n">
-        <v>74157.38213147118</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="F6" t="n">
-        <v>74157.38213147118</v>
+        <v>76436.07874062358</v>
       </c>
       <c r="G6" t="n">
-        <v>74157.38213147117</v>
+        <v>76436.07874062349</v>
       </c>
       <c r="H6" t="n">
-        <v>67420.64304570173</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="I6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
-        <v>22118.74538347038</v>
+        <v>62434.84660034423</v>
       </c>
       <c r="K6" t="n">
-        <v>76436.07874062353</v>
+        <v>28179.12580699089</v>
       </c>
       <c r="L6" t="n">
+        <v>76436.07874062355</v>
+      </c>
+      <c r="M6" t="n">
         <v>76436.07874062352</v>
       </c>
-      <c r="M6" t="n">
-        <v>76436.07874062353</v>
-      </c>
       <c r="N6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="O6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>74157.3821314712</v>
+        <v>76436.07874062353</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>74.2156435621666</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>152.228538108254</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>87.19451851350715</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>207.6001488937379</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>2.492952401903357</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>177.7602309297203</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>14.7239028643435</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>177.7602309297203</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>95.70025371986186</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>207.6001488937379</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>61.48916920023249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>2.492952401903357</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>74.21564356216658</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>95.70025371986186</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36686,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>74.2156435621666</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>199.2122640899505</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437771.4439997926</v>
+        <v>333315.7806272677</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18548951.26311751</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5538287.114247196</v>
+        <v>5525247.203600086</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.14313633741891</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.2853856434421</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>42.14629172736426</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.9272112248127</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1071,37 +1071,37 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>46.68561093626616</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>41.30402073131225</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,46 +1308,46 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>39.01596068304831</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>85.31372784089211</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,46 +1545,46 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>146.6640310169496</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>45.73653111527436</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>109.7048055824488</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2253,55 +2253,55 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.37559015745697</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.75543250779076</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2557,11 +2557,11 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>9.991949277019346</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>37.59881183071575</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>32.87280126892925</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>99.22041616487689</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,25 +3113,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>106.8110878221261</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="36">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>34.66067414728059</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>49.3111039422953</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4401811388256</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4401811388256</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4401811388256</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>112.3871215328157</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>112.3871215328157</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>58.33406192680583</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>58.33406192680583</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064623</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>58.33406192680583</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>4.28100232079598</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28100232079598</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648.4405950311615</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.6559320512295</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.1447485139397</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>204.697218590109</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>204.697218590109</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>58.162660616994</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788936</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X9" t="n">
-        <v>728.9050472788936</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y9" t="n">
-        <v>521.1447485139397</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.57944215788615</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>22.57944215788615</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D11" t="n">
-        <v>22.57944215788615</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E11" t="n">
-        <v>22.57944215788615</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F11" t="n">
-        <v>22.57944215788615</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G11" t="n">
-        <v>22.57944215788615</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H11" t="n">
-        <v>22.57944215788615</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
-        <v>22.57944215788615</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>752.9257720901863</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>509.4769954460863</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>509.4769954460863</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>266.0282188019862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>22.57944215788615</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.57944215788615</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>588.0815197256143</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C12" t="n">
-        <v>413.6284904444873</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D12" t="n">
-        <v>264.694080783236</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E12" t="n">
-        <v>105.4566257777805</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2968567456824</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>572.7563624303007</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5554,13 +5554,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="U20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>224.7171143937231</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C21" t="n">
-        <v>224.7171143937231</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5843,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>432.4774131586771</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>432.4774131586771</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>432.4774131586771</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y21" t="n">
-        <v>224.7171143937231</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>880.8494886849221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>880.8494886849221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>880.8494886849221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>645.6973804531794</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>402.2486038090794</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>852.019301208126</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>203.827050448935</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C27" t="n">
-        <v>29.37402116780802</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
-        <v>29.37402116780802</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="X27" t="n">
-        <v>411.587349213889</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.827050448935</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="28">
@@ -6411,22 +6411,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>212.4775805350491</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W30" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>380.6929175551172</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>412.4365141998294</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>265.9019562267144</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>127.17113080933</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6979,10 +6979,10 @@
         <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>495.259035872464</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y35" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,19 +7283,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C41" t="n">
-        <v>710.516763498309</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D41" t="n">
-        <v>710.516763498309</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E41" t="n">
-        <v>467.067986854209</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>914.2479596093278</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V42" t="n">
-        <v>679.0958513775852</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.9655401424092</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3248140400396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22564,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>112.7259816037308</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>100.311230012675</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>122.6534551423523</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22691,7 +22691,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,19 +22749,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.00013368622585</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275654</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>124.3868919225031</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,13 +22913,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>59.75548455249168</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>126.0228880520496</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>96.03949643189839</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>108.4291048815904</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>59.75548455249177</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>25.01914008688826</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C17" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>296.8154002296655</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>101.7085344493644</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>27.63871158076185</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24101,16 +24101,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>89.30758094638085</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24390,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>147.6531311783816</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>195.2017753187095</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>139.8356977193865</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,13 +24812,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24967,22 +24967,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,25 +25001,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>5.424356414370408</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="36">
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>171.1123110561969</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>164.3376445463983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25523,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G41" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>176.6302781386795</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>242.35803688352</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>359261.1036293524</v>
+        <v>465487.071747141</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575746</v>
+        <v>465487.071747141</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575744</v>
+        <v>465487.0717471409</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575746</v>
+        <v>465487.0717471409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575746</v>
+        <v>465487.0717471411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575744</v>
+        <v>465487.071747141</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575745</v>
+        <v>465487.071747141</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79152.84384797489</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.437145366</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26334,7 +26334,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26343,7 +26343,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26352,10 +26352,10 @@
         <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.437145366</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="P2" t="n">
-        <v>108004.437145366</v>
+        <v>102542.4671927055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>53772.51089020943</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12249.99434359158</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098084</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26456,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16914.68964098084</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>16914.68964098084</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12088.40848117698</v>
+        <v>-41124.140562211</v>
       </c>
       <c r="C6" t="n">
-        <v>-17767.84344604459</v>
+        <v>27749.61601947883</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062352</v>
+        <v>27749.61601947883</v>
       </c>
       <c r="E6" t="n">
-        <v>76436.07874062356</v>
+        <v>61377.21601947882</v>
       </c>
       <c r="F6" t="n">
-        <v>76436.07874062358</v>
+        <v>61377.21601947882</v>
       </c>
       <c r="G6" t="n">
-        <v>76436.07874062349</v>
+        <v>54489.02514641592</v>
       </c>
       <c r="H6" t="n">
-        <v>76436.07874062352</v>
+        <v>64218.06812058306</v>
       </c>
       <c r="I6" t="n">
-        <v>76436.07874062352</v>
+        <v>64218.06812058308</v>
       </c>
       <c r="J6" t="n">
-        <v>62434.84660034423</v>
+        <v>10445.55723037365</v>
       </c>
       <c r="K6" t="n">
-        <v>28179.12580699089</v>
+        <v>64218.06812058306</v>
       </c>
       <c r="L6" t="n">
-        <v>76436.07874062355</v>
+        <v>64218.06812058307</v>
       </c>
       <c r="M6" t="n">
-        <v>76436.07874062352</v>
+        <v>64218.06812058307</v>
       </c>
       <c r="N6" t="n">
-        <v>76436.07874062356</v>
+        <v>64218.06812058308</v>
       </c>
       <c r="O6" t="n">
-        <v>76436.07874062352</v>
+        <v>61377.21601947882</v>
       </c>
       <c r="P6" t="n">
-        <v>76436.07874062353</v>
+        <v>61377.21601947882</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>99.8112771299739</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>113.3808631277494</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
